--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DEB4D5-7DDF-406C-B649-6BFD17A218E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2397A735-97E6-45FA-9D7B-FEC2F181AA94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="3170" yWindow="1860" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -208,6 +208,207 @@
   </si>
   <si>
     <t>Assembled 2x microstrip-test-4-layer-sma-v1</t>
+  </si>
+  <si>
+    <t>Coilcraft</t>
+  </si>
+  <si>
+    <t>0402CS-1N8XGL</t>
+  </si>
+  <si>
+    <t>0402 inductor, 1.8n</t>
+  </si>
+  <si>
+    <t>994-0402CS-1N8XGLU</t>
+  </si>
+  <si>
+    <t>0402HP-18NXGL</t>
+  </si>
+  <si>
+    <t>0402 inductor, 18n</t>
+  </si>
+  <si>
+    <t>994-0402HP-18NXGLU</t>
+  </si>
+  <si>
+    <t>0402CS-2N0XGL</t>
+  </si>
+  <si>
+    <t>0402 inductor, 2.0n</t>
+  </si>
+  <si>
+    <t>994-0402CS-2N0XGLW</t>
+  </si>
+  <si>
+    <t>0402HP-47NXGL</t>
+  </si>
+  <si>
+    <t>0402 inductor, 47n</t>
+  </si>
+  <si>
+    <t>994-0402HP-47NXGLU</t>
+  </si>
+  <si>
+    <t>MPD</t>
+  </si>
+  <si>
+    <t>SBH431-1AS</t>
+  </si>
+  <si>
+    <t>3x AAA battery holder, cover, 6" leads, switch</t>
+  </si>
+  <si>
+    <t>SBH431-1AS-ND</t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>M20-9994045</t>
+  </si>
+  <si>
+    <t>952-3307-ND</t>
+  </si>
+  <si>
+    <t>M20-1060200</t>
+  </si>
+  <si>
+    <t>2.54mm housing, 2 position</t>
+  </si>
+  <si>
+    <t>952-2227-ND</t>
+  </si>
+  <si>
+    <t>M20-1160042</t>
+  </si>
+  <si>
+    <t>Socket contact, gold, crimp, 22-30 AWG</t>
+  </si>
+  <si>
+    <t>952-2157-1-ND</t>
+  </si>
+  <si>
+    <t>M20-1060400</t>
+  </si>
+  <si>
+    <t>2.54mm housing, 4 position</t>
+  </si>
+  <si>
+    <t>952-2229-ND</t>
+  </si>
+  <si>
+    <t>Stackpole</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00‎</t>
+  </si>
+  <si>
+    <t>0603 resistor, 0, jumper</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00CT-ND‎</t>
+  </si>
+  <si>
+    <t>RMCF0603FT2K70‎</t>
+  </si>
+  <si>
+    <t>0603 resistor, 2.7k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT2K70CT-ND‎</t>
+  </si>
+  <si>
+    <t>RMCF0402FT47K0‎</t>
+  </si>
+  <si>
+    <t>0402 resistor, 47k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>‎RMCF0402FT47K0CT-ND‎</t>
+  </si>
+  <si>
+    <t>RMCF0402ZT0R00‎</t>
+  </si>
+  <si>
+    <t>0402 resistor, 0, jumper</t>
+  </si>
+  <si>
+    <t>RMCF0402ZT0R00CT-ND‎</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LP38692MP-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulator, 1A, EN, 3.3V Fixed</t>
+  </si>
+  <si>
+    <t>LP38692MP-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>2.54mm header, vertical strip, 1x40</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>CL10A105KA8NNNC</t>
+  </si>
+  <si>
+    <t>0603 capacitor, 1u, X5R, 25V</t>
+  </si>
+  <si>
+    <t>1276-1102-1-ND</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNG</t>
+  </si>
+  <si>
+    <t>0805 capactior, 10u, X5R, 16V</t>
+  </si>
+  <si>
+    <t>1276-6455-1-ND</t>
+  </si>
+  <si>
+    <t>CL10B223KA8NNNC</t>
+  </si>
+  <si>
+    <t>0603 capacitor, 22n, X7R, 25V</t>
+  </si>
+  <si>
+    <t>1276-1999-1-ND</t>
+  </si>
+  <si>
+    <t>CL05C561JB5NNNC</t>
+  </si>
+  <si>
+    <t>0402 capacitor, 560p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>1276-1709-1-ND</t>
+  </si>
+  <si>
+    <t>ROHM Semi.</t>
+  </si>
+  <si>
+    <t>SML-D13M8WT86</t>
+  </si>
+  <si>
+    <t>0603 LED, GREEN, Diffused</t>
+  </si>
+  <si>
+    <t>‎846-1198-1-ND‎</t>
+  </si>
+  <si>
+    <t>SML-D12U8WT86‎</t>
+  </si>
+  <si>
+    <t>0603 LED, RED, Diffused</t>
+  </si>
+  <si>
+    <t>511-1580-1-ND‎</t>
   </si>
 </sst>
 </file>
@@ -271,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,6 +501,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -629,8 +833,8 @@
     <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="40.36328125" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -945,103 +1149,563 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="13">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
+      <c r="A27" s="2">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>100</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="8"/>
+      <c r="C37" s="13"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="8"/>
+      <c r="C39" s="13"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="8"/>
+      <c r="C41" s="13"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="45" spans="1:8" ht="13">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>2</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B49" s="12">
         <v>43675</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H22" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H22">
-      <sortCondition ref="C5:C22"/>
-      <sortCondition ref="D5:D22"/>
+  <autoFilter ref="A4:H42" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H42">
+      <sortCondition ref="C5:C42"/>
+      <sortCondition ref="D5:D42"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2397A735-97E6-45FA-9D7B-FEC2F181AA94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1A347-9E81-48B9-82AE-2B287997F793}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="1860" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="20140" yWindow="9330" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -102,9 +102,6 @@
     <t>BGB707L7ESDE6327XTSA1</t>
   </si>
   <si>
-    <t>General RF LNA, very low input</t>
-  </si>
-  <si>
     <t>726-SP000531308</t>
   </si>
   <si>
@@ -120,27 +117,15 @@
     <t>BDCN-20-13+</t>
   </si>
   <si>
-    <t>Bi-directional coupler</t>
-  </si>
-  <si>
     <t>BPF-C450+</t>
   </si>
   <si>
-    <t>BPF, 400 - 510 MHz</t>
-  </si>
-  <si>
     <t>BPF-F1250</t>
   </si>
   <si>
-    <t>BPF, 1050 - 1450 MHz</t>
-  </si>
-  <si>
     <t>MAC-24+</t>
   </si>
   <si>
-    <t>Diode Ring Mixer</t>
-  </si>
-  <si>
     <t>QCN-19+</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>856930</t>
   </si>
   <si>
-    <t>457.5 MHz SAW, 15 MHz</t>
-  </si>
-  <si>
     <t>772-856930</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>TQP3M9036</t>
   </si>
   <si>
-    <t>RF LNA, 0.4 - 2.0 GHz</t>
-  </si>
-  <si>
     <t>772-TQP3M9036</t>
   </si>
   <si>
@@ -216,36 +195,24 @@
     <t>0402CS-1N8XGL</t>
   </si>
   <si>
-    <t>0402 inductor, 1.8n</t>
-  </si>
-  <si>
     <t>994-0402CS-1N8XGLU</t>
   </si>
   <si>
     <t>0402HP-18NXGL</t>
   </si>
   <si>
-    <t>0402 inductor, 18n</t>
-  </si>
-  <si>
     <t>994-0402HP-18NXGLU</t>
   </si>
   <si>
     <t>0402CS-2N0XGL</t>
   </si>
   <si>
-    <t>0402 inductor, 2.0n</t>
-  </si>
-  <si>
     <t>994-0402CS-2N0XGLW</t>
   </si>
   <si>
     <t>0402HP-47NXGL</t>
   </si>
   <si>
-    <t>0402 inductor, 47n</t>
-  </si>
-  <si>
     <t>994-0402HP-47NXGLU</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>SBH431-1AS</t>
   </si>
   <si>
-    <t>3x AAA battery holder, cover, 6" leads, switch</t>
-  </si>
-  <si>
     <t>SBH431-1AS-ND</t>
   </si>
   <si>
@@ -303,36 +267,24 @@
     <t>RMCF0603ZT0R00‎</t>
   </si>
   <si>
-    <t>0603 resistor, 0, jumper</t>
-  </si>
-  <si>
     <t>RMCF0603ZT0R00CT-ND‎</t>
   </si>
   <si>
     <t>RMCF0603FT2K70‎</t>
   </si>
   <si>
-    <t>0603 resistor, 2.7k, 1%, 100ppm</t>
-  </si>
-  <si>
     <t>RMCF0603FT2K70CT-ND‎</t>
   </si>
   <si>
     <t>RMCF0402FT47K0‎</t>
   </si>
   <si>
-    <t>0402 resistor, 47k, 1%, 100ppm</t>
-  </si>
-  <si>
     <t>‎RMCF0402FT47K0CT-ND‎</t>
   </si>
   <si>
     <t>RMCF0402ZT0R00‎</t>
   </si>
   <si>
-    <t>0402 resistor, 0, jumper</t>
-  </si>
-  <si>
     <t>RMCF0402ZT0R00CT-ND‎</t>
   </si>
   <si>
@@ -348,45 +300,30 @@
     <t>LP38692MP-3.3/NOPBCT-ND</t>
   </si>
   <si>
-    <t>2.54mm header, vertical strip, 1x40</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
     <t>CL10A105KA8NNNC</t>
   </si>
   <si>
-    <t>0603 capacitor, 1u, X5R, 25V</t>
-  </si>
-  <si>
     <t>1276-1102-1-ND</t>
   </si>
   <si>
     <t>CL21A106KOQNNNG</t>
   </si>
   <si>
-    <t>0805 capactior, 10u, X5R, 16V</t>
-  </si>
-  <si>
     <t>1276-6455-1-ND</t>
   </si>
   <si>
     <t>CL10B223KA8NNNC</t>
   </si>
   <si>
-    <t>0603 capacitor, 22n, X7R, 25V</t>
-  </si>
-  <si>
     <t>1276-1999-1-ND</t>
   </si>
   <si>
     <t>CL05C561JB5NNNC</t>
   </si>
   <si>
-    <t>0402 capacitor, 560p, C0G, 50V</t>
-  </si>
-  <si>
     <t>1276-1709-1-ND</t>
   </si>
   <si>
@@ -396,19 +333,85 @@
     <t>SML-D13M8WT86</t>
   </si>
   <si>
-    <t>0603 LED, GREEN, Diffused</t>
-  </si>
-  <si>
     <t>‎846-1198-1-ND‎</t>
   </si>
   <si>
     <t>SML-D12U8WT86‎</t>
   </si>
   <si>
-    <t>0603 LED, RED, Diffused</t>
-  </si>
-  <si>
     <t>511-1580-1-ND‎</t>
+  </si>
+  <si>
+    <t>Assembled 1x dual-synthesizer</t>
+  </si>
+  <si>
+    <t>2.54mm header, vertical strip, 1x40 (by x1)</t>
+  </si>
+  <si>
+    <t>C - 0603, 1u, X5R, 25V</t>
+  </si>
+  <si>
+    <t>C - 0603, 22n, X7R, 25V</t>
+  </si>
+  <si>
+    <t>C - 0402, 560p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>R - 0402, 0, jumper</t>
+  </si>
+  <si>
+    <t>R - 0402, 47k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>R - 0603, 0, jumper</t>
+  </si>
+  <si>
+    <t>R - 0603, 2.7k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>L - 0402, 1.8n</t>
+  </si>
+  <si>
+    <t>L - 0402, 18n</t>
+  </si>
+  <si>
+    <t>L - 0402, 2.0n</t>
+  </si>
+  <si>
+    <t>L - 0402, 47n</t>
+  </si>
+  <si>
+    <t>LED - 0603, GREEN, Diffused</t>
+  </si>
+  <si>
+    <t>LED - 0603, RED, Diffused</t>
+  </si>
+  <si>
+    <t>C - 0805, 10u, X5R, 16V</t>
+  </si>
+  <si>
+    <t>Battery holder, 3x AAA, cover, 6" leads, switch</t>
+  </si>
+  <si>
+    <t>Filter - SAW, 457.5 MHz, 15 MHz</t>
+  </si>
+  <si>
+    <t>Filter - BPF, 1050 - 1450 MHz</t>
+  </si>
+  <si>
+    <t>Filter - BPF, 400 - 510 MHz</t>
+  </si>
+  <si>
+    <t>Mixer - double balanced</t>
+  </si>
+  <si>
+    <t>LNA, general, very low input</t>
+  </si>
+  <si>
+    <t>LNA, 0.4 - 2.0 GHz</t>
+  </si>
+  <si>
+    <t>Coupler - Bi-directional</t>
   </si>
 </sst>
 </file>
@@ -819,10 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -870,377 +874,381 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
+      <c r="G5" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="C10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>99</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1252,379 +1260,375 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>93</v>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>96</v>
+      <c r="C28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
-      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
         <v>109</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="s">
-        <v>117</v>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -1654,58 +1658,128 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="13">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="13"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="8"/>
+      <c r="C43" s="13"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="8"/>
+      <c r="C46" s="13"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="13"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="8"/>
+      <c r="C48" s="13"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="8"/>
+      <c r="C49" s="13"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="8"/>
+      <c r="C50" s="13"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="8"/>
+      <c r="C51" s="13"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="8"/>
+      <c r="C52" s="13"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="8"/>
+      <c r="C53" s="13"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="57" spans="1:8" ht="13">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2">
+    <row r="60" spans="1:8">
+      <c r="A60" s="2">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
+      <c r="B60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2">
         <v>2</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B61" s="12">
         <v>43675</v>
       </c>
-      <c r="C49" t="s">
-        <v>57</v>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2">
+        <v>3</v>
+      </c>
+      <c r="B62" s="12">
+        <v>43700</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H42" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H42">
-      <sortCondition ref="C5:C42"/>
-      <sortCondition ref="D5:D42"/>
+  <autoFilter ref="A4:H54" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H54">
+      <sortCondition ref="E4:E54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1A347-9E81-48B9-82AE-2B287997F793}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52611E-685A-46CD-B7C7-22D73C16A5FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20140" yWindow="9330" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="-11200" yWindow="4580" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Boards" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -412,6 +413,54 @@
   </si>
   <si>
     <t>Coupler - Bi-directional</t>
+  </si>
+  <si>
+    <t>Inventory of evaluation boards</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Assembled</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>amp-LNA-L-band-TQP3M9037</t>
+  </si>
+  <si>
+    <t>amp-LNA-S-band-TQP3M9037</t>
+  </si>
+  <si>
+    <t>amp-LNA-UHF-TQP3M9036</t>
+  </si>
+  <si>
+    <t>bpf-IF-SAW-856930</t>
+  </si>
+  <si>
+    <t>mixer-MAC-24+</t>
+  </si>
+  <si>
+    <t>power-linear-LP38692</t>
+  </si>
+  <si>
+    <t>power-switching-TPS6211x</t>
+  </si>
+  <si>
+    <t>synthesizer-RF-Si4123</t>
+  </si>
+  <si>
+    <t>microstrip-test-4-layer-sma-v1</t>
+  </si>
+  <si>
+    <t>RCVD</t>
+  </si>
+  <si>
+    <t>PEND</t>
+  </si>
+  <si>
+    <t>ORD ?</t>
   </si>
 </sst>
 </file>
@@ -475,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +556,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1785,4 +1840,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A19:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="13">
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E14">
+    <sortCondition ref="A5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52611E-685A-46CD-B7C7-22D73C16A5FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88995AFC-A434-4B07-B8B8-450FAD2884B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11200" yWindow="4580" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="5170" yWindow="1460" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>PEND</t>
-  </si>
-  <si>
-    <t>ORD ?</t>
   </si>
 </sst>
 </file>
@@ -881,7 +878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1847,7 +1844,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A19:A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1885,24 +1882,33 @@
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>141</v>
+      <c r="B6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>141</v>
+      <c r="B7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>141</v>
+      <c r="B8" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88995AFC-A434-4B07-B8B8-450FAD2884B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2696F46-8E4A-426A-8237-2F74EB9C4A3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5170" yWindow="1460" windowWidth="23190" windowHeight="14770" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Boards" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="146">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -458,6 +459,21 @@
   </si>
   <si>
     <t>PEND</t>
+  </si>
+  <si>
+    <t>AX5043-1-TW30</t>
+  </si>
+  <si>
+    <t>On Semi</t>
+  </si>
+  <si>
+    <t>AX5043-1-TW30OSCT-ND</t>
+  </si>
+  <si>
+    <t>RF Transceiver, 1GHz max</t>
+  </si>
+  <si>
+    <t>synthesizer-IF-Si4112</t>
   </si>
 </sst>
 </file>
@@ -878,7 +894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1614,79 +1630,98 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="C34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>14</v>
+      <c r="G34" t="s">
+        <v>143</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
-        <v>71</v>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="8"/>
-      <c r="C37" s="13"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
@@ -1841,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -1959,19 +1994,32 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:E15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E15">
+      <sortCondition ref="A5:A15"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E14">
     <sortCondition ref="A5"/>
   </sortState>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2696F46-8E4A-426A-8237-2F74EB9C4A3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4015DD-4514-436E-8348-C437345C23C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="25360" yWindow="2990" windowWidth="13240" windowHeight="14170" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Boards" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>synthesizer-IF-Si4112</t>
+  </si>
+  <si>
+    <t>Stencil</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1876,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1887,16 +1893,17 @@
     <col min="1" max="1" width="30.08984375" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="5" spans="1:5" ht="13">
+    <row r="5" spans="1:6" ht="13">
       <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
@@ -1910,10 +1917,13 @@
         <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -1923,8 +1933,11 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -1934,8 +1947,11 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -1945,16 +1961,22 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1967,40 +1989,55 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2013,14 +2050,17 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
+      <c r="E15" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E15">
+  <autoFilter ref="A5:F15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F15">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F14">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4015DD-4514-436E-8348-C437345C23C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74405AC2-D3B3-4F23-BCDC-AF28A8DF1510}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25360" yWindow="2990" windowWidth="13240" windowHeight="14170" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="14630" yWindow="1420" windowWidth="16320" windowHeight="16020" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>RCVD</t>
   </si>
   <si>
-    <t>PEND</t>
-  </si>
-  <si>
     <t>AX5043-1-TW30</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ORDR</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -580,6 +580,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1642,19 +1645,19 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -1884,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1917,7 +1920,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -1933,8 +1936,8 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>140</v>
+      <c r="E6" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1947,8 +1950,8 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>140</v>
+      <c r="E7" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1961,19 +1964,19 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>140</v>
+      <c r="E8" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>140</v>
+      <c r="B9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1990,51 +1993,51 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>140</v>
+      <c r="B11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>140</v>
+      <c r="B12" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>140</v>
+      <c r="B13" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74405AC2-D3B3-4F23-BCDC-AF28A8DF1510}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9ED97-05DE-4F88-8B05-8D499F396748}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14630" yWindow="1420" windowWidth="16320" windowHeight="16020" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -452,9 +452,6 @@
     <t>synthesizer-RF-Si4123</t>
   </si>
   <si>
-    <t>microstrip-test-4-layer-sma-v1</t>
-  </si>
-  <si>
     <t>RCVD</t>
   </si>
   <si>
@@ -480,6 +477,30 @@
   </si>
   <si>
     <t>ORDR</t>
+  </si>
+  <si>
+    <t>microstrip-test-4-layer-sma-34-40</t>
+  </si>
+  <si>
+    <t>microstrip-test-4-layer-sma-36-38</t>
+  </si>
+  <si>
+    <t>amp-LNA-BGB741L7ESD</t>
+  </si>
+  <si>
+    <t>PEND</t>
+  </si>
+  <si>
+    <t>bpf-L-band-BP0805</t>
+  </si>
+  <si>
+    <t>bpf-L-band-BPF-A1340+</t>
+  </si>
+  <si>
+    <t>bpf-L-band-BPF-F1250+</t>
+  </si>
+  <si>
+    <t>diplexer-GPS-RF360-B8666</t>
   </si>
 </sst>
 </file>
@@ -903,7 +924,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -911,11 +932,11 @@
     <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
     <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -1645,19 +1666,19 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -1885,19 +1906,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13">
@@ -1920,7 +1941,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -1931,13 +1952,13 @@
         <v>130</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>147</v>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1945,13 +1966,13 @@
         <v>131</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>147</v>
+      <c r="E7" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1959,13 +1980,13 @@
         <v>132</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>147</v>
+      <c r="E8" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1973,18 +1994,18 @@
         <v>133</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1993,73 +2014,139 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>139</v>
+      <c r="E16" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:F15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F15">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F16">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9ED97-05DE-4F88-8B05-8D499F396748}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E4DAC8-6A68-4ABE-AE05-966DA004F4CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2940" yWindow="1390" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Boards" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -501,6 +501,27 @@
   </si>
   <si>
     <t>diplexer-GPS-RF360-B8666</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>test-boards</t>
+  </si>
+  <si>
+    <t>BOM File</t>
+  </si>
+  <si>
+    <t>synthesizers</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>filter-misc</t>
   </si>
 </sst>
 </file>
@@ -564,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -604,6 +625,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +948,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1020,7 +1044,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -1708,7 +1732,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>9</v>
@@ -1906,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -1918,16 +1942,18 @@
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="13">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
@@ -1944,26 +1970,31 @@
         <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>130</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>131</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>138</v>
@@ -1974,10 +2005,12 @@
       <c r="E7" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>138</v>
@@ -1988,169 +2021,264 @@
       <c r="E8" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="F15" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="F16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="F17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="F20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="F21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F16">
+  <autoFilter ref="A5:H15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H21">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H14">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E4DAC8-6A68-4ABE-AE05-966DA004F4CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57A17E-3488-4C4A-802A-769A7E00CD09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1390" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2770" yWindow="1670" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Stencil</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>ORDR</t>
   </si>
   <si>
@@ -522,6 +519,12 @@
   </si>
   <si>
     <t>filter-misc</t>
+  </si>
+  <si>
+    <t>SHPED</t>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix, 2.7V adj</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -581,11 +590,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -628,6 +646,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +972,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1944,7 +1968,7 @@
     <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -1970,10 +1994,10 @@
         <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -1981,13 +2005,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -2045,85 +2069,85 @@
         <v>133</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>138</v>
@@ -2134,98 +2158,99 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>146</v>
+      <c r="B18" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="G18" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>159</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>146</v>
+      <c r="B19" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2242,33 +2267,33 @@
         <v>138</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57A17E-3488-4C4A-802A-769A7E00CD09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786553C4-D3D1-4269-9C6F-295B04515FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2770" yWindow="1670" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="1600" yWindow="1350" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="165">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Stencil</t>
   </si>
   <si>
-    <t>ORDR</t>
-  </si>
-  <si>
     <t>microstrip-test-4-layer-sma-34-40</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>test-boards</t>
   </si>
   <si>
@@ -524,7 +518,29 @@
     <t>SHPED</t>
   </si>
   <si>
-    <t>Variations: 3.3V fix, 2.7V adj</t>
+    <t>amps</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>amp-LNA-BFP740Fxxx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variations: 3.3V fix, 2.7V adj, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Sans"/>
+      </rPr>
+      <t>5.0V fix (cart)</t>
+    </r>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix</t>
   </si>
 </sst>
 </file>
@@ -534,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -546,8 +562,13 @@
       <color rgb="FF000000"/>
       <name val="Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Sans"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,9 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,6 +676,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -972,7 +999,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33:G33"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1957,7 +1984,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1966,9 +1993,9 @@
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.08984375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -1994,10 +2021,10 @@
         <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -2005,16 +2032,20 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2029,8 +2060,12 @@
       <c r="E7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2045,8 +2080,12 @@
       <c r="E8" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -2061,93 +2100,99 @@
       <c r="E9" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>145</v>
+      <c r="B10" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>160</v>
+      <c r="F10" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>160</v>
+      <c r="B11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>160</v>
+        <v>150</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>138</v>
@@ -2158,96 +2203,101 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="19"/>
+        <v>146</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>145</v>
+      <c r="B17" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>160</v>
+      <c r="F17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>161</v>
+      <c r="B18" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="G18" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="H18" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>161</v>
+      <c r="B19" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>159</v>
+      <c r="F19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>145</v>
+      <c r="B20" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>158</v>
+      <c r="F20" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2267,35 +2317,38 @@
         <v>138</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:H15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786553C4-D3D1-4269-9C6F-295B04515FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D5C48-EC18-4BC6-AA83-B1145827CAD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1350" windowWidth="24000" windowHeight="12760" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="1360" yWindow="530" windowWidth="25580" windowHeight="15470" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="220">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -173,12 +173,6 @@
     <t>634-SI4123-D-GM</t>
   </si>
   <si>
-    <t>Revision History</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -515,32 +509,193 @@
     <t>filter-misc</t>
   </si>
   <si>
+    <t>amps</t>
+  </si>
+  <si>
+    <t>amp-LNA-BFP740Fxxx</t>
+  </si>
+  <si>
+    <t>BAS16XV2T1G</t>
+  </si>
+  <si>
+    <t>Diode, Gen Purp, 200mA, SOD523</t>
+  </si>
+  <si>
+    <t>BAS16XV2T1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>CL31A226KOHNNNE</t>
+  </si>
+  <si>
+    <t>C - 1206, 22u, X5R, 16V</t>
+  </si>
+  <si>
+    <t>1276-3048-1-ND</t>
+  </si>
+  <si>
+    <t>LP38692MP-ADJ/NOPB</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulator, 1A, EN, Adjustable</t>
+  </si>
+  <si>
+    <t>LP38692MP-ADJ/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>DMP2120U-7</t>
+  </si>
+  <si>
+    <t>MOSFET, P-Chan, 20V, SOT23</t>
+  </si>
+  <si>
+    <t>DMP2120U-7DICT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K50‎</t>
+  </si>
+  <si>
+    <t>R - 0603, 1.5k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>‎RMCF0603FT1K50CT-ND</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>PAT1220-C-2DB-T5</t>
+  </si>
+  <si>
+    <t>AT, 0805, 100mW, 2dB</t>
+  </si>
+  <si>
+    <t>PAT122CT-ND</t>
+  </si>
+  <si>
+    <t>PAT1220-C-4DB-T5</t>
+  </si>
+  <si>
+    <t>AT, 0805, 100mW, 4dB</t>
+  </si>
+  <si>
+    <t>PAT124CT-ND</t>
+  </si>
+  <si>
+    <t>PAT1220-C-6DB-T5</t>
+  </si>
+  <si>
+    <t>AT, 0805, 100mW, 6dB</t>
+  </si>
+  <si>
+    <t>PAT126CT-ND</t>
+  </si>
+  <si>
+    <t>PAT1220-C-8DB-T5</t>
+  </si>
+  <si>
+    <t>AT, 0805, 100mW, 8dB</t>
+  </si>
+  <si>
+    <t>PAT128CT-ND</t>
+  </si>
+  <si>
+    <t>AVX Corp</t>
+  </si>
+  <si>
+    <t>BP0805A1308ASTR</t>
+  </si>
+  <si>
+    <t>Filter, thin-film 0805, 1220 - 1420 MHz</t>
+  </si>
+  <si>
+    <t>478-12187-1-ND</t>
+  </si>
+  <si>
+    <t>RF360</t>
+  </si>
+  <si>
+    <t>B39162B8666L210</t>
+  </si>
+  <si>
+    <t>Diplexer, GPS SAW extractor</t>
+  </si>
+  <si>
+    <t>B39162B8666L210CT-ND</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RT0402BRD0711K8L‎</t>
+  </si>
+  <si>
+    <t>R - 0402, 11.8k, 0.1%, 25ppm</t>
+  </si>
+  <si>
+    <t>‎YAG4166CT-ND‎</t>
+  </si>
+  <si>
+    <t>RT0402BRD0713K7L‎</t>
+  </si>
+  <si>
+    <t>R - 0402, 13.7k, 0.1%, 25ppm</t>
+  </si>
+  <si>
+    <t>‎YAG4172CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT5K60</t>
+  </si>
+  <si>
+    <t>R - 0603, 5.6k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT5K60CT-ND</t>
+  </si>
+  <si>
+    <t>M20-9980645</t>
+  </si>
+  <si>
+    <t>2.54mm header, vertical strip, 12 pos (2x6)</t>
+  </si>
+  <si>
+    <t>952-2125-ND</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Assembled 1x mixer-MAC-24+ w/ all 0 ohm</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
     <t>SHPED</t>
   </si>
   <si>
-    <t>amps</t>
-  </si>
-  <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>amp-LNA-BFP740Fxxx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Variations: 3.3V fix, 2.7V adj, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Sans"/>
-      </rPr>
-      <t>5.0V fix (cart)</t>
-    </r>
-  </si>
-  <si>
-    <t>Variations: 3.3V fix</t>
+    <t>Used for L and S band</t>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix, 5.0V fix (shped)</t>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix, 2.7V adj, 5.0V fix (shped)</t>
+  </si>
+  <si>
+    <t>REORD</t>
+  </si>
+  <si>
+    <t>Redesign stencil for fixed tCream mixer</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Board</t>
   </si>
 </sst>
 </file>
@@ -564,7 +719,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Sans"/>
     </font>
   </fonts>
@@ -589,18 +743,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -617,20 +771,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,10 +820,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,16 +1150,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
@@ -1047,381 +1202,383 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="C14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="C15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>53</v>
+      <c r="C17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>55</v>
+      <c r="C18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>59</v>
+      <c r="C20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1433,73 +1590,69 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
@@ -1508,252 +1661,258 @@
         <v>32</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>22</v>
+      <c r="C25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>24</v>
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>141</v>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -1765,143 +1924,424 @@
         <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
+      <c r="C36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>96</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>92</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>98</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>94</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="8"/>
-      <c r="C38" s="13"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="8"/>
-      <c r="C39" s="13"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="8"/>
-      <c r="C40" s="13"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="8"/>
-      <c r="C41" s="13"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="8"/>
-      <c r="C42" s="13"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="8"/>
-      <c r="C43" s="13"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="8"/>
-      <c r="C44" s="13"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="8"/>
-      <c r="C45" s="13"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="8"/>
-      <c r="C46" s="13"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="8"/>
-      <c r="C47" s="13"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="8"/>
-      <c r="C48" s="13"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="8"/>
-      <c r="C49" s="13"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" s="8"/>
-      <c r="C50" s="13"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" s="8"/>
-      <c r="C51" s="13"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="8"/>
-      <c r="C52" s="13"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
@@ -1910,68 +2350,111 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="13">
-      <c r="A57" s="1" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="13"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="8"/>
+      <c r="C55" s="13"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="8"/>
+      <c r="C56" s="13"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="8"/>
+      <c r="C57" s="13"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="8"/>
+      <c r="C58" s="13"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="8"/>
+      <c r="C59" s="13"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="8"/>
+      <c r="C60" s="13"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="8"/>
+      <c r="C61" s="13"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="8"/>
+      <c r="C62" s="13"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="66" spans="1:4" ht="13">
+      <c r="A66" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13">
+      <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2" t="s">
+      <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B69" t="s">
         <v>47</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12">
+        <v>43675</v>
+      </c>
+      <c r="B70" t="s">
         <v>48</v>
       </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="2">
-        <v>2</v>
-      </c>
-      <c r="B61" s="12">
-        <v>43675</v>
-      </c>
-      <c r="C61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2">
-        <v>3</v>
-      </c>
-      <c r="B62" s="12">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="12">
         <v>43700</v>
       </c>
-      <c r="C62" t="s">
-        <v>102</v>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="12">
+        <v>43738</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H54" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H54">
-      <sortCondition ref="E4:E54"/>
+  <autoFilter ref="A4:H63" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H63">
+      <sortCondition ref="E4:E63"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,47 +2467,44 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="2" customWidth="1"/>
+    <col min="2" max="6" width="11.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.90625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -2032,303 +2512,337 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>161</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>161</v>
+        <v>145</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>161</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="16"/>
+        <v>136</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="G9" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>159</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>159</v>
+      <c r="B13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>146</v>
+      </c>
       <c r="F15" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="F16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>161</v>
+        <v>136</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="F23" s="16"/>
@@ -2352,7 +2866,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H21">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H22">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D5C48-EC18-4BC6-AA83-B1145827CAD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E86838-F998-4657-B753-0A1AB36177B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="530" windowWidth="25580" windowHeight="15470" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2910" yWindow="1560" windowWidth="20410" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="230">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>V's Box</t>
-  </si>
-  <si>
     <t>Cinch</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>J658-ND</t>
-  </si>
-  <si>
     <t>ECS</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>LNA, general, very low input</t>
   </si>
   <si>
-    <t>LNA, 0.4 - 2.0 GHz</t>
-  </si>
-  <si>
     <t>Coupler - Bi-directional</t>
   </si>
   <si>
@@ -674,18 +665,9 @@
     <t>History</t>
   </si>
   <si>
-    <t>SHPED</t>
-  </si>
-  <si>
     <t>Used for L and S band</t>
   </si>
   <si>
-    <t>Variations: 3.3V fix, 5.0V fix (shped)</t>
-  </si>
-  <si>
-    <t>Variations: 3.3V fix, 2.7V adj, 5.0V fix (shped)</t>
-  </si>
-  <si>
     <t>REORD</t>
   </si>
   <si>
@@ -696,6 +678,54 @@
   </si>
   <si>
     <t>Board</t>
+  </si>
+  <si>
+    <t>Digikey/Mouser</t>
+  </si>
+  <si>
+    <t>J658-ND / 530-142-0701-851</t>
+  </si>
+  <si>
+    <t>Assembled 1x LP38692-2.7, LP38692-3.3, and SAW-856930 boards</t>
+  </si>
+  <si>
+    <t>TQP3M9037</t>
+  </si>
+  <si>
+    <t>772-TQP3M9037</t>
+  </si>
+  <si>
+    <t>TQP7M9105</t>
+  </si>
+  <si>
+    <t>LNA, high performance</t>
+  </si>
+  <si>
+    <t>PA, 50 - 1500 MHz, 1W, 5V</t>
+  </si>
+  <si>
+    <t>772-TQP7M9105</t>
+  </si>
+  <si>
+    <t>0402CS-3N9XGL</t>
+  </si>
+  <si>
+    <t>L - 0402, 3.9n</t>
+  </si>
+  <si>
+    <t>994-0402CS-3N9XGLW</t>
+  </si>
+  <si>
+    <t>C3-RF Box</t>
+  </si>
+  <si>
+    <t>Assembled 1x TPS62111-3.3</t>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix, 2.7V adj, 5.0V fix</t>
+  </si>
+  <si>
+    <t>Variations: 3.3V fix, 5.0V fix</t>
   </si>
 </sst>
 </file>
@@ -775,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -836,6 +866,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1164,7 +1199,7 @@
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
   </cols>
@@ -1202,49 +1237,49 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1253,22 +1288,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1277,22 +1312,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1301,22 +1336,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>178</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1325,22 +1360,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1349,22 +1384,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1373,22 +1408,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1397,22 +1432,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1421,46 +1456,46 @@
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1469,91 +1504,91 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1563,22 +1598,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1587,22 +1622,22 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>192</v>
-      </c>
-      <c r="D21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -1611,19 +1646,19 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1633,47 +1668,47 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1681,22 +1716,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>188</v>
-      </c>
-      <c r="D25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>191</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1705,22 +1740,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="H26" s="6"/>
     </row>
@@ -1729,22 +1764,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -1753,46 +1788,46 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>57</v>
+        <v>226</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1801,118 +1836,118 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" t="s">
-        <v>166</v>
-      </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>37</v>
+        <v>226</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -1921,231 +1956,231 @@
         <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>220</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>41</v>
+        <v>226</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>25</v>
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>81</v>
+        <v>226</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>199</v>
+        <v>226</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2">
-        <v>3</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>202</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>79</v>
@@ -2154,70 +2189,70 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -2226,137 +2261,194 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
         <v>73</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>205</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>14</v>
+        <v>226</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2">
+        <v>26</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2">
+        <v>94</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2">
         <v>9</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="B55" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="8"/>
-      <c r="C53" s="13"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="8"/>
-      <c r="C54" s="13"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="8"/>
-      <c r="C55" s="13"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
@@ -2406,12 +2498,12 @@
     </row>
     <row r="66" spans="1:4" ht="13">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13">
       <c r="A68" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>8</v>
@@ -2420,36 +2512,106 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
+      <c r="A69" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12">
         <v>43675</v>
       </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
+      <c r="B70" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12">
         <v>43700</v>
       </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
+      <c r="B71" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12">
         <v>43738</v>
       </c>
-      <c r="B72" t="s">
-        <v>210</v>
-      </c>
+      <c r="B72" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12">
+        <v>43740</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12">
+        <v>43742</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H63" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
@@ -2466,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -2480,31 +2642,31 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -2512,186 +2674,189 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>212</v>
+        <v>143</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>212</v>
+        <v>133</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2700,41 +2865,44 @@
         <v>2</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2743,90 +2911,96 @@
         <v>1</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2835,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E86838-F998-4657-B753-0A1AB36177B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F775055-9F1F-4DCC-B2B6-7F57974E675A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1560" windowWidth="20410" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="12240" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="265">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Initial Inventory</t>
   </si>
   <si>
-    <t>Assembled 2x microstrip-test-4-layer-sma-v1</t>
-  </si>
-  <si>
     <t>Coilcraft</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>511-1580-1-ND‎</t>
   </si>
   <si>
-    <t>Assembled 1x dual-synthesizer</t>
-  </si>
-  <si>
     <t>2.54mm header, vertical strip, 1x40 (by x1)</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>J658-ND / 530-142-0701-851</t>
   </si>
   <si>
-    <t>Assembled 1x LP38692-2.7, LP38692-3.3, and SAW-856930 boards</t>
-  </si>
-  <si>
     <t>TQP3M9037</t>
   </si>
   <si>
@@ -719,13 +710,127 @@
     <t>C3-RF Box</t>
   </si>
   <si>
-    <t>Assembled 1x TPS62111-3.3</t>
-  </si>
-  <si>
     <t>Variations: 3.3V fix, 2.7V adj, 5.0V fix</t>
   </si>
   <si>
     <t>Variations: 3.3V fix, 5.0V fix</t>
+  </si>
+  <si>
+    <t>LP38692MP-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulator, 1A, EN, 5.0V Fixed</t>
+  </si>
+  <si>
+    <t>‎LP38692MP-5.0/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0‎</t>
+  </si>
+  <si>
+    <t>R - 0603, 10k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>‎RMCF0603FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>TPS62112RSAR</t>
+  </si>
+  <si>
+    <t>Buck Reg, 5.0V, 1.5A</t>
+  </si>
+  <si>
+    <t>‎296-39444-1-ND‎</t>
+  </si>
+  <si>
+    <t>CL05C220JB5NNNC‎</t>
+  </si>
+  <si>
+    <t>C - 0402, 22p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>‎1276-1116-1-ND</t>
+  </si>
+  <si>
+    <t>CL05C060CB5NNNC</t>
+  </si>
+  <si>
+    <t>C - 0402, 6.0p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>1276-1607-1-ND</t>
+  </si>
+  <si>
+    <t>CL10B473KB8NNNC</t>
+  </si>
+  <si>
+    <t>C - 0603, 47n, X7R, 50V</t>
+  </si>
+  <si>
+    <t>1276-1063-1-ND</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>LQW18AN10NG00D‎</t>
+  </si>
+  <si>
+    <t>L - 0603, 10n, 650mA, 110mohm, +/-2%</t>
+  </si>
+  <si>
+    <t>490-6856-1-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27K0‎</t>
+  </si>
+  <si>
+    <t>R - 0603, 27k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27K0CT-ND</t>
+  </si>
+  <si>
+    <t>LQW18AN27NG00D</t>
+  </si>
+  <si>
+    <t>L - 0603, 27n, 440mA, 210mohm, +/-2%</t>
+  </si>
+  <si>
+    <t>490-6879-1-ND</t>
+  </si>
+  <si>
+    <t>BGB741L7ESDE6327XTSA1‎</t>
+  </si>
+  <si>
+    <t>MMIC LNA, General purpose</t>
+  </si>
+  <si>
+    <t>‎BGB741L7ESDE6327XTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>Assembled 1x TPS62112-5.0, and LP38692-5.0</t>
+  </si>
+  <si>
+    <t>Assembled 1x LP38692-adj-2.7, LP38692-3.3, and SAW-856930 boards</t>
+  </si>
+  <si>
+    <t>ORDRD</t>
+  </si>
+  <si>
+    <t>Assembled 1x sythesizer-Si4112</t>
+  </si>
+  <si>
+    <t>Assembled 1x synthesizer-Si4123</t>
+  </si>
+  <si>
+    <t>Assembled 1x LNA-TQP3M9037</t>
+  </si>
+  <si>
+    <t>Assembled 2x microstrip-test-4-layer-sma-34-40</t>
+  </si>
+  <si>
+    <t>Assembled 1x TPS62111-3.3, and 2x microstrip-text-4-layer-sma-36-38</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1197,10 +1302,10 @@
     <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,49 +1342,49 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1288,22 +1393,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1312,22 +1417,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1336,22 +1441,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
         <v>172</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1360,22 +1465,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>176</v>
-      </c>
-      <c r="E10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1384,22 +1489,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>179</v>
-      </c>
-      <c r="E11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1408,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>182</v>
-      </c>
-      <c r="E12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1432,70 +1537,70 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1504,140 +1609,142 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="A19" s="2">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -1646,38 +1753,40 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>226</v>
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>23</v>
@@ -1687,147 +1796,143 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1836,22 +1941,22 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -1860,22 +1965,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>83</v>
+        <v>223</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -1884,94 +1989,94 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
+        <v>223</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
+        <v>223</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>20</v>
+        <v>223</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -1980,140 +2085,142 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>34</v>
+        <v>223</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>35</v>
+        <v>252</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>253</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="6"/>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>228</v>
+      </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>222</v>
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>42</v>
+        <v>223</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>96</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -2122,501 +2229,789 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>196</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>171</v>
+        <v>223</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
+        <v>223</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2">
-        <v>8</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>202</v>
-      </c>
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>194</v>
       </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
+        <v>89</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2">
+        <v>89</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2">
         <v>9</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2">
+        <v>8</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2">
+        <v>92</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2">
+        <v>10</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>250</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2">
+        <v>22</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2">
+        <v>94</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2">
+        <v>8</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="8"/>
-      <c r="C56" s="13"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="8"/>
-      <c r="C57" s="13"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="8"/>
-      <c r="C58" s="13"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="8"/>
-      <c r="C59" s="13"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="8"/>
-      <c r="C60" s="13"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="8"/>
-      <c r="C61" s="13"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" s="8"/>
-      <c r="C62" s="13"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="66" spans="1:4" ht="13">
-      <c r="A66" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13">
-      <c r="A68" s="3" t="s">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="8"/>
+      <c r="C66" s="13"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="13"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="8"/>
+      <c r="C68" s="13"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="8"/>
+      <c r="C69" s="13"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="8"/>
+      <c r="C70" s="13"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="8"/>
+      <c r="C71" s="13"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="8"/>
+      <c r="C72" s="13"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="8"/>
+      <c r="C73" s="13"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="8"/>
+      <c r="C74" s="13"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" s="8"/>
+      <c r="C75" s="13"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="8"/>
+      <c r="C76" s="13"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="13">
+      <c r="A80" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="13">
+      <c r="A82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B83" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="12">
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12">
         <v>43675</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="12">
+      <c r="B84" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12">
         <v>43700</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="12">
+      <c r="B85" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12">
         <v>43738</v>
       </c>
-      <c r="B72" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="12">
+      <c r="B86" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12">
         <v>43740</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="12">
+      <c r="B87" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12">
         <v>43742</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="12"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="12"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="12"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="12"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="12"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="12"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="B88" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12">
+        <v>43743</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12">
+        <v>43744</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12">
+        <v>43745</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="12"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="12"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="12"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="12"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="25"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H63" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H63">
-      <sortCondition ref="E4:E63"/>
+  <autoFilter ref="A4:H77" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H77">
+      <sortCondition ref="E4:E77"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2642,31 +3037,31 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -2674,98 +3069,101 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2774,89 +3172,89 @@
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="17" t="s">
         <v>143</v>
       </c>
+      <c r="B13" s="21" t="s">
+        <v>259</v>
+      </c>
       <c r="E13" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2865,21 +3263,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2888,21 +3286,21 @@
         <v>2</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2911,96 +3309,99 @@
         <v>1</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>133</v>
-      </c>
       <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -3009,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F775055-9F1F-4DCC-B2B6-7F57974E675A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275942F-A274-406F-BDB9-43E0221EA785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="12240" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="5720" yWindow="2230" windowWidth="20740" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="264">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>amp-LNA-BGB741L7ESD</t>
-  </si>
-  <si>
-    <t>PEND</t>
   </si>
   <si>
     <t>bpf-L-band-BP0805</t>
@@ -857,7 +854,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,12 +870,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,14 +950,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1345,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
         <v>201</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>202</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>203</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -1369,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
@@ -1393,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
@@ -1417,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>58</v>
@@ -1441,22 +1426,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
         <v>170</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>171</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>173</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1465,22 +1450,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
         <v>174</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>175</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1489,22 +1474,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
         <v>177</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>178</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>179</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1513,22 +1498,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
         <v>180</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>181</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>182</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1537,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>55</v>
@@ -1561,22 +1546,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
         <v>232</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>233</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>234</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1585,22 +1570,22 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
         <v>235</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>236</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>237</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1609,7 +1594,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>83</v>
@@ -1633,22 +1618,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
         <v>238</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>239</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>240</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1657,7 +1642,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>83</v>
@@ -1681,7 +1666,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>83</v>
@@ -1705,22 +1690,22 @@
         <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
         <v>241</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>242</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1729,7 +1714,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>83</v>
@@ -1753,22 +1738,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>158</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1799,22 +1784,22 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
         <v>154</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -1823,22 +1808,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
         <v>187</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>188</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>190</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1847,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
@@ -1869,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -1891,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
@@ -1917,22 +1902,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" t="s">
         <v>183</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
         <v>185</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>186</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1941,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>46</v>
@@ -1965,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>46</v>
@@ -1989,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>46</v>
@@ -2013,22 +1998,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" t="s">
         <v>220</v>
-      </c>
-      <c r="E33" t="s">
-        <v>221</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="6"/>
     </row>
@@ -2037,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>46</v>
@@ -2061,22 +2046,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" t="s">
         <v>244</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>245</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
         <v>246</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>247</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -2085,22 +2070,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" t="s">
         <v>251</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -2109,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>79</v>
@@ -2133,22 +2118,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" t="s">
         <v>226</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
         <v>227</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>228</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -2157,22 +2142,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
         <v>160</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>162</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -2181,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>92</v>
@@ -2205,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>92</v>
@@ -2229,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -2253,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>30</v>
@@ -2262,7 +2247,7 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>16</v>
@@ -2277,22 +2262,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -2301,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>23</v>
@@ -2323,22 +2308,22 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" t="s">
         <v>254</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
         <v>255</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>256</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -2347,22 +2332,22 @@
         <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
         <v>163</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>164</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
         <v>165</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>166</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -2371,22 +2356,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -2395,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>36</v>
@@ -2419,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>36</v>
@@ -2465,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>70</v>
@@ -2489,22 +2474,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" t="s">
         <v>191</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>192</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
         <v>193</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>194</v>
       </c>
       <c r="H53" s="6"/>
     </row>
@@ -2513,22 +2498,22 @@
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
         <v>195</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
         <v>196</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>197</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -2537,7 +2522,7 @@
         <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>70</v>
@@ -2561,7 +2546,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>70</v>
@@ -2585,22 +2570,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
         <v>167</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
         <v>168</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>169</v>
       </c>
       <c r="H57" s="6"/>
     </row>
@@ -2609,22 +2594,22 @@
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
         <v>229</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>230</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>231</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -2633,7 +2618,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>70</v>
@@ -2657,22 +2642,22 @@
         <v>10</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s">
         <v>248</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
         <v>249</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>250</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -2681,22 +2666,22 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
         <v>198</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
         <v>199</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>200</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -2705,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>133</v>
@@ -2729,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>9</v>
@@ -2741,10 +2726,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H63" s="6"/>
     </row>
@@ -2753,7 +2738,7 @@
         <v>94</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>58</v>
@@ -2777,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>13</v>
@@ -2863,7 +2848,7 @@
     </row>
     <row r="80" spans="1:8" ht="13">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13">
@@ -2873,140 +2858,140 @@
       <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12">
         <v>43675</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12">
         <v>43700</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="B85" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12">
         <v>43738</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="B86" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12">
         <v>43740</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12">
         <v>43742</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12">
         <v>43743</v>
       </c>
-      <c r="B89" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="B89" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12">
         <v>43744</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="B90" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12">
         <v>43745</v>
       </c>
-      <c r="B91" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H77" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
@@ -3024,7 +3009,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3046,7 +3031,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>120</v>
@@ -3058,10 +3043,10 @@
         <v>137</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -3069,31 +3054,31 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>141</v>
+      <c r="B7" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3111,7 +3096,7 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3134,10 +3119,10 @@
         <v>131</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3155,7 +3140,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3178,75 +3163,75 @@
         <v>131</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="17" t="s">
         <v>141</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3262,14 +3247,14 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>210</v>
+      <c r="E16" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3285,14 +3270,14 @@
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>210</v>
+      <c r="E17" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3308,17 +3293,17 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>208</v>
+      <c r="E18" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3341,10 +3326,10 @@
         <v>131</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>224</v>
+        <v>149</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3367,10 +3352,10 @@
         <v>131</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3393,7 +3378,7 @@
         <v>131</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3416,7 +3401,7 @@
         <v>131</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275942F-A274-406F-BDB9-43E0221EA785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A189C-F3A8-496B-B0CD-B4B485D2675E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="2230" windowWidth="20740" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2820" yWindow="780" windowWidth="20740" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="267">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -812,9 +812,6 @@
     <t>Assembled 1x LP38692-adj-2.7, LP38692-3.3, and SAW-856930 boards</t>
   </si>
   <si>
-    <t>ORDRD</t>
-  </si>
-  <si>
     <t>Assembled 1x sythesizer-Si4112</t>
   </si>
   <si>
@@ -828,6 +825,18 @@
   </si>
   <si>
     <t>Assembled 1x TPS62111-3.3, and 2x microstrip-text-4-layer-sma-36-38</t>
+  </si>
+  <si>
+    <t>PEND</t>
+  </si>
+  <si>
+    <t>transceiver-AX5043</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>SHPED</t>
   </si>
 </sst>
 </file>
@@ -854,7 +863,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +885,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -961,6 +976,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,7 +2894,7 @@
         <v>43675</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -2886,7 +2904,7 @@
         <v>43700</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -2916,7 +2934,7 @@
         <v>43742</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -2936,7 +2954,7 @@
         <v>43744</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -2946,7 +2964,7 @@
         <v>43745</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -3009,7 +3027,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3056,10 +3074,15 @@
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
         <v>151</v>
       </c>
@@ -3068,11 +3091,14 @@
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>258</v>
+      <c r="B7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>131</v>
@@ -3170,11 +3196,14 @@
       <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>258</v>
+      <c r="B12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>131</v>
@@ -3188,10 +3217,10 @@
         <v>142</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>131</v>
@@ -3205,10 +3234,10 @@
         <v>143</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>131</v>
@@ -3221,11 +3250,14 @@
       <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>258</v>
+      <c r="B15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>131</v>
@@ -3405,8 +3437,18 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="F24" s="16"/>
@@ -3426,7 +3468,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H22">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H23">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A189C-F3A8-496B-B0CD-B4B485D2675E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BBD20-4A9B-42AF-9A0E-E6FBCBF47D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="780" windowWidth="20740" windowHeight="14720" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="4250" yWindow="1900" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -389,9 +389,6 @@
     <t>Mixer - double balanced</t>
   </si>
   <si>
-    <t>LNA, general, very low input</t>
-  </si>
-  <si>
     <t>Coupler - Bi-directional</t>
   </si>
   <si>
@@ -656,15 +653,6 @@
     <t>History</t>
   </si>
   <si>
-    <t>Used for L and S band</t>
-  </si>
-  <si>
-    <t>REORD</t>
-  </si>
-  <si>
-    <t>Redesign stencil for fixed tCream mixer</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -800,9 +788,6 @@
     <t>BGB741L7ESDE6327XTSA1‎</t>
   </si>
   <si>
-    <t>MMIC LNA, General purpose</t>
-  </si>
-  <si>
     <t>‎BGB741L7ESDE6327XTSA1CT-ND</t>
   </si>
   <si>
@@ -837,6 +822,33 @@
   </si>
   <si>
     <t>SHPED</t>
+  </si>
+  <si>
+    <t>TRL-calibration-thru-reflect-match</t>
+  </si>
+  <si>
+    <t>Redesign stencil for fixed tCream</t>
+  </si>
+  <si>
+    <t>Used for L and S band; new name amp-LNA-TQP3M9037</t>
+  </si>
+  <si>
+    <t>Assembled 1x Diplexer-B8666, 1x AVX BPF BP0805, and 1x LNA-BGB741L7ESD</t>
+  </si>
+  <si>
+    <t>LNA, general purpose</t>
+  </si>
+  <si>
+    <t>ORDRD</t>
+  </si>
+  <si>
+    <t>Requested part sample from MiniCircuits</t>
+  </si>
+  <si>
+    <t>Assembled 1x AVX BPF BP0805, and added 2dB att to mixer LO</t>
+  </si>
+  <si>
+    <t>REORD ?</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1309,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1348,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
@@ -1396,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
@@ -1420,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>58</v>
@@ -1441,25 +1453,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
         <v>169</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>172</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1468,22 +1480,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>175</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1492,22 +1504,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
         <v>176</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1516,22 +1528,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
         <v>179</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>181</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1540,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>55</v>
@@ -1564,46 +1576,46 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1612,7 +1624,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>83</v>
@@ -1636,31 +1648,31 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>83</v>
@@ -1684,7 +1696,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>83</v>
@@ -1705,25 +1717,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1732,7 +1744,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>83</v>
@@ -1756,22 +1768,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" t="s">
         <v>156</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1789,7 +1801,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>23</v>
@@ -1802,46 +1814,46 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
         <v>153</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
         <v>186</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>189</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1850,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
@@ -1872,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -1894,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
@@ -1917,25 +1929,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
         <v>182</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>183</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
         <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>185</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1944,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>46</v>
@@ -1968,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>46</v>
@@ -1992,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>46</v>
@@ -2016,22 +2028,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H33" s="6"/>
     </row>
@@ -2040,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>46</v>
@@ -2064,46 +2076,46 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -2112,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>79</v>
@@ -2136,22 +2148,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -2160,31 +2172,31 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
         <v>159</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
         <v>160</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>161</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>92</v>
@@ -2208,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>92</v>
@@ -2232,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
@@ -2241,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>16</v>
@@ -2253,119 +2265,119 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>35</v>
+        <v>218</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>250</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D44" t="s">
-        <v>213</v>
+      <c r="D44" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G44" t="s">
-        <v>214</v>
+      <c r="G44" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>255</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
         <v>162</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>163</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
         <v>164</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>165</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -2374,22 +2386,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -2398,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>36</v>
@@ -2422,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>36</v>
@@ -2468,7 +2480,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>70</v>
@@ -2492,22 +2504,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s">
         <v>190</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>191</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
         <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>193</v>
       </c>
       <c r="H53" s="6"/>
     </row>
@@ -2516,31 +2528,31 @@
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
         <v>194</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
         <v>195</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>196</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>70</v>
@@ -2561,10 +2573,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>70</v>
@@ -2585,25 +2597,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
         <v>166</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
         <v>167</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>168</v>
       </c>
       <c r="H57" s="6"/>
     </row>
@@ -2612,22 +2624,22 @@
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -2636,7 +2648,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>70</v>
@@ -2657,25 +2669,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -2684,22 +2696,22 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
         <v>197</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
         <v>198</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>199</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -2708,31 +2720,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
         <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>134</v>
       </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>9</v>
@@ -2744,10 +2756,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H63" s="6"/>
     </row>
@@ -2756,7 +2768,7 @@
         <v>94</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>58</v>
@@ -2780,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>13</v>
@@ -2866,7 +2878,7 @@
     </row>
     <row r="80" spans="1:8" ht="13">
       <c r="A80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13">
@@ -2894,7 +2906,7 @@
         <v>43675</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -2904,7 +2916,7 @@
         <v>43700</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -2914,7 +2926,7 @@
         <v>43738</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -2924,7 +2936,7 @@
         <v>43740</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -2934,7 +2946,7 @@
         <v>43742</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -2944,7 +2956,7 @@
         <v>43743</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
@@ -2954,7 +2966,7 @@
         <v>43744</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -2964,20 +2976,28 @@
         <v>43745</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="12"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="12">
+        <v>43757</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>265</v>
+      </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="12"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="12">
+        <v>43764</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>269</v>
+      </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
     </row>
@@ -3035,36 +3055,36 @@
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
     <col min="2" max="6" width="11.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.36328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -3072,65 +3092,68 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>263</v>
+        <v>151</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -3139,42 +3162,42 @@
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -3183,95 +3206,113 @@
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>266</v>
+        <v>142</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>266</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -3280,21 +3321,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3303,21 +3344,21 @@
         <v>2</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3326,24 +3367,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -3352,24 +3393,24 @@
         <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3378,24 +3419,24 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -3404,21 +3445,21 @@
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -3427,31 +3468,45 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>203</v>
+        <v>259</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="F24" s="16"/>
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BBD20-4A9B-42AF-9A0E-E6FBCBF47D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676ECF00-CC81-4774-8900-0355E9FFC2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4250" yWindow="1900" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2590" yWindow="1670" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="275">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -116,18 +116,9 @@
     <t>BPF-C450+</t>
   </si>
   <si>
-    <t>BPF-F1250</t>
-  </si>
-  <si>
     <t>MAC-24+</t>
   </si>
   <si>
-    <t>QCN-19+</t>
-  </si>
-  <si>
-    <t>Quadrature splitter</t>
-  </si>
-  <si>
     <t>Qorvo</t>
   </si>
   <si>
@@ -842,13 +833,34 @@
     <t>ORDRD</t>
   </si>
   <si>
-    <t>Requested part sample from MiniCircuits</t>
-  </si>
-  <si>
     <t>Assembled 1x AVX BPF BP0805, and added 2dB att to mixer LO</t>
   </si>
   <si>
     <t>REORD ?</t>
+  </si>
+  <si>
+    <t>Received MiniCircuits samples, 1x BPF-A1340+, 2x MAC-24+</t>
+  </si>
+  <si>
+    <t>BPF-A1340+</t>
+  </si>
+  <si>
+    <t>BPF-F1250+</t>
+  </si>
+  <si>
+    <t>Filter - BPF, 1000 - 1800 MHz</t>
+  </si>
+  <si>
+    <t>quad-hybrid-QCN-19D+</t>
+  </si>
+  <si>
+    <t>QCN-19D+</t>
+  </si>
+  <si>
+    <t>Quadrature hybrid, 1100 - 1925 MHz</t>
+  </si>
+  <si>
+    <t>RQST SPLE</t>
   </si>
 </sst>
 </file>
@@ -858,7 +870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -872,6 +884,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Sans"/>
     </font>
   </fonts>
@@ -1305,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1321,7 +1337,7 @@
     <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -1360,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -1384,22 +1400,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1408,22 +1424,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1432,22 +1448,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1456,22 +1472,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>168</v>
-      </c>
-      <c r="D9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1480,22 +1496,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1504,22 +1520,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1528,22 +1544,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1552,22 +1568,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1576,22 +1592,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1600,22 +1616,22 @@
         <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1624,22 +1640,22 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1648,22 +1664,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1672,22 +1688,22 @@
         <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1696,22 +1712,22 @@
         <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -1720,22 +1736,22 @@
         <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1744,22 +1760,22 @@
         <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -1768,22 +1784,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1801,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>23</v>
@@ -1814,22 +1830,22 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -1838,22 +1854,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>185</v>
-      </c>
-      <c r="D25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1862,16 +1878,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>23</v>
@@ -1881,19 +1897,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>23</v>
@@ -1903,123 +1919,121 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>48</v>
+        <v>215</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H32" s="6"/>
     </row>
@@ -2028,22 +2042,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G33" t="s">
-        <v>217</v>
+      <c r="G33" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H33" s="6"/>
     </row>
@@ -2052,118 +2066,118 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>54</v>
+      <c r="G34" t="s">
+        <v>214</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>242</v>
+        <v>215</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>239</v>
-      </c>
-      <c r="D36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>248</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
         <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>223</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -2172,46 +2186,46 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -2220,188 +2234,188 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
-        <v>249</v>
+      <c r="D43" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>250</v>
+        <v>263</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>35</v>
+        <v>215</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>247</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
         <v>209</v>
       </c>
-      <c r="E45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="F45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G45" t="s">
-        <v>210</v>
+      <c r="G45" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="6"/>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>164</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>214</v>
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>161</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -2410,22 +2424,22 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>215</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -2434,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>37</v>
@@ -2454,72 +2468,72 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="D52" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2">
-        <v>16</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>78</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="H53" s="6"/>
     </row>
@@ -2528,46 +2542,46 @@
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
         <v>189</v>
-      </c>
-      <c r="D54" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>195</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H55" s="6"/>
     </row>
@@ -2576,46 +2590,46 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="H57" s="6"/>
     </row>
@@ -2624,196 +2638,215 @@
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
         <v>70</v>
       </c>
-      <c r="D60" t="s">
-        <v>243</v>
-      </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
       </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
+        <v>215</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
+        <v>94</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2">
         <v>8</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="B66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="8"/>
-      <c r="C66" s="13"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
@@ -2867,149 +2900,152 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="13">
-      <c r="A80" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="13">
-      <c r="A82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="13"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="81" spans="1:4" ht="13">
+      <c r="A81" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="13">
+      <c r="A83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="12">
-        <v>43675</v>
+      <c r="A84" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12">
-        <v>43700</v>
+        <v>43675</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12">
-        <v>43738</v>
+        <v>43700</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12">
-        <v>43740</v>
+        <v>43738</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12">
-        <v>43742</v>
+        <v>43740</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12">
-        <v>43757</v>
+        <v>43745</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12">
-        <v>43764</v>
+        <v>43757</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="12"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="12">
+        <v>43764</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>265</v>
+      </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="12"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>267</v>
+      </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
     </row>
@@ -3026,17 +3062,24 @@
       <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H77" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H77">
-      <sortCondition ref="E4:E77"/>
+  <autoFilter ref="A4:H78" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H78">
+      <sortCondition ref="E4:E78"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3060,31 +3103,31 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
@@ -3092,27 +3135,27 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -3121,39 +3164,39 @@
         <v>1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -3162,42 +3205,42 @@
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -3206,21 +3249,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -3229,44 +3272,41 @@
         <v>2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>258</v>
+        <v>202</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -3275,21 +3315,21 @@
         <v>1</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -3298,21 +3338,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -3321,21 +3361,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3344,21 +3384,21 @@
         <v>2</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3367,24 +3407,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -3393,24 +3433,24 @@
         <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3419,47 +3459,41 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>271</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -3468,50 +3502,71 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>202</v>
+        <v>126</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>205</v>
+        <v>264</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>255</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="F26" s="16"/>
@@ -3523,7 +3578,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H15" xr:uid="{50C1A60C-E47A-486F-B8CF-18CEB4A5343D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H25">
       <sortCondition ref="A5:A15"/>
     </sortState>
   </autoFilter>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676ECF00-CC81-4774-8900-0355E9FFC2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D81E4-E86F-484A-8332-11B328F8B5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2590" yWindow="1670" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="4800" yWindow="2270" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="277">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -854,13 +854,19 @@
     <t>quad-hybrid-QCN-19D+</t>
   </si>
   <si>
-    <t>QCN-19D+</t>
-  </si>
-  <si>
     <t>Quadrature hybrid, 1100 - 1925 MHz</t>
   </si>
   <si>
     <t>RQST SPLE</t>
+  </si>
+  <si>
+    <t>Assembled 1x BPF-A1340+</t>
+  </si>
+  <si>
+    <t>Assembled 1x BPF-F1250+</t>
+  </si>
+  <si>
+    <t>QCN-19+</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1875,7 +1881,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>215</v>
@@ -1897,7 +1903,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>215</v>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>215</v>
@@ -2492,20 +2498,20 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>21</v>
+      <c r="A52" s="2">
+        <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>23</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>215</v>
@@ -3041,23 +3047,31 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12">
-        <v>43770</v>
+        <v>43764</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="12"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>267</v>
+      </c>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="12"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
     </row>
@@ -3068,10 +3082,16 @@
       <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H78" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
@@ -3090,7 +3110,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3289,7 +3309,10 @@
         <v>127</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>202</v>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D81E4-E86F-484A-8332-11B328F8B5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F8192-EB45-4679-ABB2-C299B2155B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2270" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="275">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -803,18 +803,12 @@
     <t>Assembled 1x TPS62111-3.3, and 2x microstrip-text-4-layer-sma-36-38</t>
   </si>
   <si>
-    <t>PEND</t>
-  </si>
-  <si>
     <t>transceiver-AX5043</t>
   </si>
   <si>
     <t>radio</t>
   </si>
   <si>
-    <t>SHPED</t>
-  </si>
-  <si>
     <t>TRL-calibration-thru-reflect-match</t>
   </si>
   <si>
@@ -851,9 +845,6 @@
     <t>Filter - BPF, 1000 - 1800 MHz</t>
   </si>
   <si>
-    <t>quad-hybrid-QCN-19D+</t>
-  </si>
-  <si>
     <t>Quadrature hybrid, 1100 - 1925 MHz</t>
   </si>
   <si>
@@ -867,6 +858,9 @@
   </si>
   <si>
     <t>QCN-19+</t>
+  </si>
+  <si>
+    <t>quad-hybrid-QCN-xxx+</t>
   </si>
 </sst>
 </file>
@@ -897,7 +891,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,12 +913,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1010,9 +998,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1890,7 +1875,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>111</v>
@@ -1912,10 +1897,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>23</v>
@@ -2297,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>16</v>
@@ -2321,7 +2306,7 @@
         <v>246</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2502,16 +2487,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>23</v>
@@ -2521,7 +2506,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>215</v>
@@ -3030,7 +3015,7 @@
         <v>43757</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -3040,7 +3025,7 @@
         <v>43764</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -3050,7 +3035,7 @@
         <v>43764</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -3060,7 +3045,7 @@
         <v>43770</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
@@ -3070,7 +3055,7 @@
         <v>43770</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -3088,10 +3073,22 @@
       <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="12"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="23"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H78" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
@@ -3110,7 +3107,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3157,11 +3154,14 @@
       <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>255</v>
+      <c r="B6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>199</v>
@@ -3183,8 +3183,8 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>258</v>
+      <c r="E7" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>127</v>
@@ -3234,7 +3234,7 @@
         <v>147</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>127</v>
@@ -3439,7 +3439,7 @@
         <v>146</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3496,13 +3496,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>255</v>
+        <v>274</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>199</v>
@@ -3559,27 +3559,36 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="25" t="s">
         <v>255</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>202</v>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F8192-EB45-4679-ABB2-C299B2155B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC224AFD-F3DF-4697-BD4E-8A931E0573A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2270" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="5140" yWindow="2610" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="274">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -633,9 +633,6 @@
   </si>
   <si>
     <t>952-2125-ND</t>
-  </si>
-  <si>
-    <t>WIP</t>
   </si>
   <si>
     <t>Assembled 1x mixer-MAC-24+ w/ all 0 ohm</t>
@@ -938,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -978,9 +975,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1367,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>55</v>
@@ -1391,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>55</v>
@@ -1415,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>55</v>
@@ -1439,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>55</v>
@@ -1463,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>165</v>
@@ -1487,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>165</v>
@@ -1511,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>165</v>
@@ -1535,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>165</v>
@@ -1559,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>52</v>
@@ -1583,22 +1577,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
         <v>224</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1607,22 +1601,22 @@
         <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
         <v>227</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>228</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>229</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1631,7 +1625,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>80</v>
@@ -1655,22 +1649,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
         <v>230</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>231</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>232</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1679,7 +1673,7 @@
         <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>80</v>
@@ -1703,7 +1697,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>80</v>
@@ -1727,22 +1721,22 @@
         <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>234</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>235</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1751,7 +1745,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>80</v>
@@ -1775,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>80</v>
@@ -1821,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>129</v>
@@ -1845,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>182</v>
@@ -1869,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>111</v>
@@ -1891,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>23</v>
@@ -1913,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>23</v>
@@ -1935,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>27</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>178</v>
@@ -1985,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>43</v>
@@ -2009,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>43</v>
@@ -2033,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>43</v>
@@ -2057,22 +2051,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
         <v>212</v>
-      </c>
-      <c r="E34" t="s">
-        <v>213</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -2081,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>43</v>
@@ -2105,22 +2099,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" t="s">
         <v>236</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>237</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>238</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>239</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -2129,22 +2123,22 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" t="s">
         <v>243</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
         <v>244</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -2153,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>76</v>
@@ -2177,22 +2171,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s">
         <v>218</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
         <v>219</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>220</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -2201,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>76</v>
@@ -2225,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>89</v>
@@ -2249,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>89</v>
@@ -2273,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
@@ -2282,7 +2276,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>16</v>
@@ -2297,22 +2291,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
         <v>246</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>247</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -2321,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>27</v>
@@ -2330,7 +2324,7 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>16</v>
@@ -2345,22 +2339,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -2369,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>23</v>
@@ -2391,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>158</v>
@@ -2415,22 +2409,22 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -2439,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>33</v>
@@ -2463,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>33</v>
@@ -2487,16 +2481,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>23</v>
@@ -2509,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>67</v>
@@ -2533,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>186</v>
@@ -2557,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>186</v>
@@ -2581,7 +2575,7 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>67</v>
@@ -2605,7 +2599,7 @@
         <v>88</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>67</v>
@@ -2629,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>67</v>
@@ -2653,22 +2647,22 @@
         <v>8</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" t="s">
         <v>221</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
         <v>222</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>223</v>
       </c>
       <c r="H59" s="6"/>
     </row>
@@ -2677,7 +2671,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>67</v>
@@ -2701,22 +2695,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" t="s">
         <v>240</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
         <v>241</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>242</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -2725,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>67</v>
@@ -2749,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>129</v>
@@ -2773,7 +2767,7 @@
         <v>28</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>9</v>
@@ -2785,10 +2779,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -2797,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>55</v>
@@ -2821,7 +2815,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>13</v>
@@ -2907,7 +2901,7 @@
     </row>
     <row r="81" spans="1:4" ht="13">
       <c r="A81" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13">
@@ -2917,178 +2911,178 @@
       <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12">
         <v>43675</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="B85" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12">
         <v>43700</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="B86" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12">
         <v>43738</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="B87" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12">
         <v>43740</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="B88" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12">
         <v>43742</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="B89" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12">
         <v>43743</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="B90" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12">
         <v>43744</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="B91" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12">
         <v>43745</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="B92" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12">
         <v>43757</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="B93" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12">
         <v>43764</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="B94" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12">
         <v>43764</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="B95" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12">
         <v>43770</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="B96" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12">
         <v>43770</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="B97" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H78" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
@@ -3107,7 +3101,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3129,7 +3123,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>116</v>
@@ -3160,11 +3154,11 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>199</v>
+      <c r="E6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>147</v>
@@ -3234,7 +3228,7 @@
         <v>147</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3314,8 +3308,8 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>202</v>
+      <c r="E13" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>127</v>
@@ -3337,8 +3331,8 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>202</v>
+      <c r="E14" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>127</v>
@@ -3383,8 +3377,8 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>202</v>
+      <c r="E16" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>127</v>
@@ -3406,8 +3400,8 @@
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>202</v>
+      <c r="E17" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>127</v>
@@ -3429,8 +3423,8 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>264</v>
+      <c r="E18" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>127</v>
@@ -3439,7 +3433,7 @@
         <v>146</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3464,8 +3458,8 @@
       <c r="G19" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>216</v>
+      <c r="H19" s="20" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3491,21 +3485,21 @@
         <v>145</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>199</v>
+        <v>273</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>146</v>
@@ -3559,7 +3553,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>127</v>
@@ -3567,19 +3561,19 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>199</v>
+      <c r="E24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>127</v>
@@ -3590,11 +3584,11 @@
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>199</v>
+      <c r="E25" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>142</v>

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC224AFD-F3DF-4697-BD4E-8A931E0573A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D6850-7564-4834-BB64-123500A91AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="2610" windowWidth="21320" windowHeight="14390" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="1870" yWindow="700" windowWidth="21320" windowHeight="14390" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="280">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -845,9 +845,6 @@
     <t>Quadrature hybrid, 1100 - 1925 MHz</t>
   </si>
   <si>
-    <t>RQST SPLE</t>
-  </si>
-  <si>
     <t>Assembled 1x BPF-A1340+</t>
   </si>
   <si>
@@ -858,6 +855,27 @@
   </si>
   <si>
     <t>quad-hybrid-QCN-xxx+</t>
+  </si>
+  <si>
+    <t>ORDR</t>
+  </si>
+  <si>
+    <t>Assembled 1x SAW-856930, 1x LNA-TQP3M9037, 1x LNA-BGB741L7ESD</t>
+  </si>
+  <si>
+    <t>SHPD</t>
+  </si>
+  <si>
+    <t>microstrip-test-38 used for line standard, thru can be cut for open standard</t>
+  </si>
+  <si>
+    <t>YAG2301CT-ND</t>
+  </si>
+  <si>
+    <t>RT0402BRD07100RL</t>
+  </si>
+  <si>
+    <t>R - 0402, 100, 0.1%, 25ppm</t>
   </si>
 </sst>
 </file>
@@ -935,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -992,6 +1010,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1598,7 +1619,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>214</v>
@@ -1646,7 +1667,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>214</v>
@@ -1670,7 +1691,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>214</v>
@@ -1718,7 +1739,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>214</v>
@@ -1926,7 +1947,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>214</v>
@@ -2096,7 +2117,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>214</v>
@@ -2120,7 +2141,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>214</v>
@@ -2216,7 +2237,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>214</v>
@@ -2288,7 +2309,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>214</v>
@@ -2336,7 +2357,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>214</v>
@@ -2480,14 +2501,14 @@
       <c r="A52" s="2">
         <v>3</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>269</v>
+      <c r="B52" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>268</v>
@@ -2596,7 +2617,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>214</v>
@@ -2620,7 +2641,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>214</v>
@@ -2692,7 +2713,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>214</v>
@@ -2716,7 +2737,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>214</v>
@@ -2764,7 +2785,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>214</v>
@@ -2845,42 +2866,72 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="B69" s="8"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>277</v>
+      </c>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="B70" s="8"/>
+      <c r="B70" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="B71" s="8"/>
+      <c r="B71" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="B72" s="8"/>
+      <c r="B72" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="B73" s="8"/>
+      <c r="B73" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="B74" s="8"/>
+      <c r="B74" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C74" s="13"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="B75" s="8"/>
+      <c r="B75" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" s="8"/>
+      <c r="B76" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="H76" s="6"/>
     </row>
@@ -2890,204 +2941,248 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="81" spans="1:4" ht="13">
-      <c r="A81" s="1" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="13"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="8"/>
+      <c r="C79" s="13"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="8"/>
+      <c r="C80" s="13"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" s="8"/>
+      <c r="C81" s="13"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" s="8"/>
+      <c r="C82" s="13"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" s="8"/>
+      <c r="C83" s="13"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" s="8"/>
+      <c r="C84" s="13"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" s="8"/>
+      <c r="C85" s="13"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="89" spans="1:8" ht="13">
+      <c r="A89" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13">
-      <c r="A83" s="3" t="s">
+    <row r="91" spans="1:8" ht="13">
+      <c r="A91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B92" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="12">
-        <v>43675</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="12">
-        <v>43700</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="12">
-        <v>43738</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="12">
-        <v>43740</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="12">
-        <v>43742</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="12">
-        <v>43743</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="12">
-        <v>43744</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="12">
-        <v>43745</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:8">
       <c r="A93" s="12">
-        <v>43757</v>
+        <v>43675</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:8">
       <c r="A94" s="12">
-        <v>43764</v>
+        <v>43700</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:8">
       <c r="A95" s="12">
-        <v>43764</v>
+        <v>43738</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:8">
       <c r="A96" s="12">
-        <v>43770</v>
+        <v>43740</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12">
-        <v>43770</v>
+        <v>43742</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="12"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="12">
+        <v>43743</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>247</v>
+      </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="12"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="12">
+        <v>43744</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>249</v>
+      </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="12"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="12">
+        <v>43745</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>251</v>
+      </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="12"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="12">
+        <v>43757</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>259</v>
+      </c>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="A102" s="12">
+        <v>43764</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="12">
+        <v>43764</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="12">
+        <v>43782</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="12"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="12"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="12"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H78" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H78">
-      <sortCondition ref="E4:E78"/>
+  <autoFilter ref="A4:H86" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H86">
+      <sortCondition ref="E4:E86"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3100,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3109,7 +3204,7 @@
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
     <col min="2" max="6" width="11.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.36328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="61.453125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13">
@@ -3155,10 +3250,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>261</v>
+        <v>275</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>147</v>
@@ -3172,10 +3267,10 @@
         <v>127</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>127</v>
@@ -3213,10 +3308,10 @@
         <v>127</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>127</v>
@@ -3257,10 +3352,10 @@
         <v>127</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>127</v>
@@ -3490,16 +3585,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>261</v>
+        <v>275</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>146</v>
@@ -3562,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>261</v>
+        <v>275</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>255</v>
@@ -3587,11 +3682,14 @@
       <c r="E25" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>261</v>
+      <c r="F25" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>142</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D6850-7564-4834-BB64-123500A91AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D04EE1-72A6-4CFC-8CE8-55A07831FCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1870" yWindow="700" windowWidth="21320" windowHeight="14390" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="2030" yWindow="650" windowWidth="27380" windowHeight="16310" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="329">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -857,9 +857,6 @@
     <t>quad-hybrid-QCN-xxx+</t>
   </si>
   <si>
-    <t>ORDR</t>
-  </si>
-  <si>
     <t>Assembled 1x SAW-856930, 1x LNA-TQP3M9037, 1x LNA-BGB741L7ESD</t>
   </si>
   <si>
@@ -876,6 +873,156 @@
   </si>
   <si>
     <t>R - 0402, 100, 0.1%, 25ppm</t>
+  </si>
+  <si>
+    <t>BFP740FH6327XTSA1</t>
+  </si>
+  <si>
+    <t>LNA, RF Transistor, NPN, 42GHz, TSFP4</t>
+  </si>
+  <si>
+    <t>BFP740FH6327XTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT220R</t>
+  </si>
+  <si>
+    <t>R - 0603, 220, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT220RCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0</t>
+  </si>
+  <si>
+    <t>R - 0603, 27, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT39R0</t>
+  </si>
+  <si>
+    <t>R - 0603, 39, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT39R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT45K3</t>
+  </si>
+  <si>
+    <t>R - 0603, 45.3k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>RMCF0603FT45K3CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>R - 0402, 1.0k, 1%, 100ppm</t>
+  </si>
+  <si>
+    <t>Taitien</t>
+  </si>
+  <si>
+    <t>TYKTBLSANF-16.000000</t>
+  </si>
+  <si>
+    <t>TCXO, 16.000 MHz, 1.8V, Clipped SW, 1ppm</t>
+  </si>
+  <si>
+    <t>1664-1323-1-ND</t>
+  </si>
+  <si>
+    <t>CL05C8R2CB5NNNC</t>
+  </si>
+  <si>
+    <t>C - 0402 8.2p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>‎1276-1729-1-ND</t>
+  </si>
+  <si>
+    <t>CL05C102JB5NNNC</t>
+  </si>
+  <si>
+    <t>C - 0402, 1n, C0G, 50V</t>
+  </si>
+  <si>
+    <t>1276-1635-1-ND</t>
+  </si>
+  <si>
+    <t>CL05C820JB5NNNC</t>
+  </si>
+  <si>
+    <t>C - 0402, 82p, C0G, 50V</t>
+  </si>
+  <si>
+    <t>‎1276-1726-1-ND</t>
+  </si>
+  <si>
+    <t>CL10C103JA8NNNC</t>
+  </si>
+  <si>
+    <t>C - 0603, 10n, C0G, 25V</t>
+  </si>
+  <si>
+    <t>1276-2172-1-ND</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>C - 0603, 4.7u, X5R, 16V</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>LQW15AN43NG8ZD</t>
+  </si>
+  <si>
+    <t>L - 0402, 43n, 515mA, 516mohm, +/-2%</t>
+  </si>
+  <si>
+    <t>490-15447-1-ND</t>
+  </si>
+  <si>
+    <t>LQW18AN91NG8ZD</t>
+  </si>
+  <si>
+    <t>L - 0603, 91n, 520mA, 540mohm, +/-2%</t>
+  </si>
+  <si>
+    <t>490-15756-1-ND</t>
+  </si>
+  <si>
+    <t>LP2985IM5-1.8/NOPB</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulator, 150mA, EN, 1.8V Fixed</t>
+  </si>
+  <si>
+    <t>LP2985IM5-1.8/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>132360</t>
+  </si>
+  <si>
+    <t>SMA Male Terminator, 50 ohm</t>
+  </si>
+  <si>
+    <t>ACX1251-ND</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1010,9 +1157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,11 +1471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1340,7 +1484,7 @@
     <col min="2" max="2" width="12.26953125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
@@ -1402,8 +1546,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>20</v>
+      <c r="A6" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>214</v>
@@ -1619,7 +1763,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>214</v>
@@ -1628,22 +1772,22 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>214</v>
@@ -1652,22 +1796,22 @@
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>214</v>
@@ -1676,22 +1820,22 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>214</v>
@@ -1700,22 +1844,22 @@
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>214</v>
@@ -1724,22 +1868,22 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>214</v>
@@ -1748,22 +1892,22 @@
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>214</v>
@@ -1772,22 +1916,22 @@
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>214</v>
@@ -1796,148 +1940,154 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="A23" s="2">
+        <v>94</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="C27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>214</v>
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>23</v>
@@ -1947,171 +2097,165 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>51</v>
+      <c r="C35" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -2122,68 +2266,68 @@
       <c r="B36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>238</v>
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>244</v>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
+      <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -2195,163 +2339,163 @@
         <v>214</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>91</v>
+      <c r="C41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>20</v>
+      <c r="C43" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>244</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>260</v>
+        <v>318</v>
+      </c>
+      <c r="E44" t="s">
+        <v>319</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>31</v>
+      <c r="C45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>321</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>32</v>
+        <v>322</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>323</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -2363,19 +2507,19 @@
         <v>214</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -2386,184 +2530,188 @@
       <c r="B47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="6"/>
+      <c r="C47" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>219</v>
+      </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>210</v>
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>39</v>
+      <c r="C50" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>93</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>271</v>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>245</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>246</v>
+      </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>74</v>
+      <c r="C53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
+        <v>208</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -2575,169 +2723,165 @@
         <v>214</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+      <c r="C56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>164</v>
+        <v>27</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>222</v>
+      <c r="C59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
+      <c r="C60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>239</v>
-      </c>
-      <c r="E61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>241</v>
-      </c>
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>214</v>
@@ -2746,16 +2890,16 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -2767,422 +2911,792 @@
         <v>214</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>204</v>
+      <c r="C64" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>276</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
+        <v>2</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2">
+        <v>88</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2">
+        <v>85</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2">
         <v>8</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B70" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2">
+        <v>92</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2">
+        <v>8</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>241</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>290</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>293</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2">
+        <v>22</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2">
+        <v>10</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2">
+        <v>94</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2">
+        <v>10</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>299</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2">
+        <v>8</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" s="8"/>
-      <c r="C67" s="13"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" s="8"/>
-      <c r="C68" s="13"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" t="s">
-        <v>278</v>
-      </c>
-      <c r="E69" t="s">
-        <v>279</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>277</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77" s="8"/>
-      <c r="C77" s="13"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" s="8"/>
-      <c r="C78" s="13"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" s="8"/>
-      <c r="C79" s="13"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" s="8"/>
-      <c r="C80" s="13"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="B81" s="8"/>
-      <c r="C81" s="13"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" s="8"/>
-      <c r="C82" s="13"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" s="8"/>
-      <c r="C83" s="13"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" s="8"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" s="8"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="89" spans="1:8" ht="13">
-      <c r="A89" s="1" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="13"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" s="8"/>
+      <c r="C87" s="13"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" s="8"/>
+      <c r="C88" s="13"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="92" spans="1:8" ht="13">
+      <c r="A92" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13">
-      <c r="A91" s="3" t="s">
+    <row r="94" spans="1:8" ht="13">
+      <c r="A94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="12" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B95" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="12">
-        <v>43675</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="12">
-        <v>43700</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="12">
-        <v>43738</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>199</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="12">
-        <v>43740</v>
+        <v>43675</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12">
-        <v>43742</v>
+        <v>43700</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12">
-        <v>43743</v>
+        <v>43738</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12">
-        <v>43744</v>
+        <v>43740</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12">
-        <v>43745</v>
+        <v>43742</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12">
-        <v>43757</v>
+        <v>43743</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12">
-        <v>43764</v>
+        <v>43744</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12">
-        <v>43764</v>
+        <v>43745</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12">
-        <v>43770</v>
+        <v>43757</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12">
-        <v>43770</v>
+        <v>43764</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12">
-        <v>43782</v>
+        <v>43764</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="12"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>264</v>
+      </c>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="12"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="12"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="12">
+        <v>43782</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>273</v>
+      </c>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="12"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="12"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="12"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="12"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="12"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="12"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="12"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="12"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="12"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="12"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="12"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H86" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H86">
-      <sortCondition ref="E4:E86"/>
+  <autoFilter ref="A4:H89" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H89">
+      <sortCondition ref="E4:E89"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3250,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>127</v>
@@ -3591,7 +4105,7 @@
         <v>261</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>127</v>
@@ -3657,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>127</v>
@@ -3689,7 +4203,7 @@
         <v>142</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D04EE1-72A6-4CFC-8CE8-55A07831FCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC2873-8D17-4602-84DB-D6F753B9E1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="650" windowWidth="27380" windowHeight="16310" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="-11210" yWindow="2660" windowWidth="27380" windowHeight="15550" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boards!$A$5:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$H$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="334">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -806,12 +806,6 @@
     <t>radio</t>
   </si>
   <si>
-    <t>TRL-calibration-thru-reflect-match</t>
-  </si>
-  <si>
-    <t>Redesign stencil for fixed tCream</t>
-  </si>
-  <si>
     <t>Used for L and S band; new name amp-LNA-TQP3M9037</t>
   </si>
   <si>
@@ -860,9 +854,6 @@
     <t>Assembled 1x SAW-856930, 1x LNA-TQP3M9037, 1x LNA-BGB741L7ESD</t>
   </si>
   <si>
-    <t>SHPD</t>
-  </si>
-  <si>
     <t>microstrip-test-38 used for line standard, thru can be cut for open standard</t>
   </si>
   <si>
@@ -1022,7 +1013,31 @@
     <t>ACX1251-ND</t>
   </si>
   <si>
-    <t>???</t>
+    <t>calibration-thru-reflect-match-sma</t>
+  </si>
+  <si>
+    <t>Stencil fixed tCream on MAC-24+</t>
+  </si>
+  <si>
+    <t>Stencil fixed tCream on BFP7xxF</t>
+  </si>
+  <si>
+    <t>Assembled 1x transceiver-AX5043</t>
+  </si>
+  <si>
+    <t>Assembled 1x LNA-BFP740F</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>C0402C222J3GACTU</t>
+  </si>
+  <si>
+    <t>C - 0402, 2.2n, C0G, 25V</t>
+  </si>
+  <si>
+    <t>399-8957-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1471,9 +1486,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E92D-4F29-4448-8517-BC8F08AC5F2B}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1546,8 +1561,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>328</v>
+      <c r="A6" s="2">
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>214</v>
@@ -1619,7 +1634,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>214</v>
@@ -1643,7 +1658,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>214</v>
@@ -1763,7 +1778,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>214</v>
@@ -1772,22 +1787,22 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>214</v>
@@ -1796,46 +1811,46 @@
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>214</v>
@@ -1844,22 +1859,22 @@
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>214</v>
@@ -1868,22 +1883,22 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>214</v>
@@ -1892,22 +1907,22 @@
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>214</v>
@@ -1916,22 +1931,22 @@
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>214</v>
@@ -1940,22 +1955,22 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>214</v>
@@ -1964,22 +1979,22 @@
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>214</v>
@@ -1988,22 +2003,22 @@
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>214</v>
@@ -2012,22 +2027,22 @@
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>214</v>
@@ -2036,22 +2051,22 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>214</v>
@@ -2060,114 +2075,116 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
         <v>152</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>153</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>151</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="6"/>
+      <c r="C31" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>214</v>
@@ -2176,10 +2193,10 @@
         <v>23</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>23</v>
@@ -2189,7 +2206,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>214</v>
@@ -2198,10 +2215,10 @@
         <v>23</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>23</v>
@@ -2211,81 +2228,79 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>45</v>
+      <c r="C36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>181</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>214</v>
@@ -2294,22 +2309,22 @@
         <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>214</v>
@@ -2318,88 +2333,88 @@
         <v>43</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G39" t="s">
-        <v>213</v>
+      <c r="G39" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>51</v>
+      <c r="C41" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" t="s">
+        <v>313</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>314</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -2410,26 +2425,26 @@
       <c r="B42" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>238</v>
+      <c r="C42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>214</v>
@@ -2438,22 +2453,22 @@
         <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>214</v>
@@ -2462,46 +2477,46 @@
         <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>214</v>
@@ -2510,22 +2525,22 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>214</v>
@@ -2534,16 +2549,16 @@
         <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -2558,46 +2573,46 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>214</v>
@@ -2606,206 +2621,206 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>20</v>
+      <c r="C51" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>93</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D52" t="s">
-        <v>245</v>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>246</v>
+        <v>258</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" t="s">
-        <v>208</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>32</v>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>246</v>
       </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D54" t="s">
-        <v>205</v>
+      <c r="D54" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E54" t="s">
         <v>208</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G54" t="s">
-        <v>206</v>
+      <c r="G54" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="6"/>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>161</v>
-      </c>
+      <c r="C57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>210</v>
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>161</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -2816,20 +2831,20 @@
       <c r="B59" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>33</v>
+      <c r="C59" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="H59" s="6"/>
     </row>
@@ -2844,16 +2859,16 @@
         <v>33</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -2865,47 +2880,47 @@
         <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>75</v>
-      </c>
+      <c r="C62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>214</v>
@@ -2914,46 +2929,46 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>214</v>
@@ -2962,16 +2977,16 @@
         <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="H65" s="6"/>
     </row>
@@ -2986,46 +3001,46 @@
         <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>214</v>
@@ -3034,22 +3049,22 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>214</v>
@@ -3058,22 +3073,22 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>214</v>
@@ -3082,22 +3097,22 @@
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>214</v>
@@ -3106,22 +3121,22 @@
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>214</v>
@@ -3130,22 +3145,22 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>214</v>
@@ -3154,22 +3169,22 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>214</v>
@@ -3178,22 +3193,22 @@
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>214</v>
@@ -3202,22 +3217,22 @@
         <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>214</v>
@@ -3226,22 +3241,22 @@
         <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>214</v>
@@ -3250,170 +3265,185 @@
         <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>204</v>
+      <c r="C79" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>130</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
+        <v>11</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="E80" s="6" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>63</v>
+      <c r="C81" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>296</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2">
         <v>8</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="6" t="s">
+      <c r="B84" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" s="8"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
@@ -3427,7 +3457,11 @@
     </row>
     <row r="86" spans="1:8">
       <c r="B86" s="8"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
@@ -3441,136 +3475,131 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="92" spans="1:8" ht="13">
-      <c r="A92" s="1" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="13"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="93" spans="1:8" ht="13">
+      <c r="A93" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:8" ht="13">
+      <c r="A95" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="12" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B96" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="12">
-        <v>43675</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>252</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12">
-        <v>43700</v>
+        <v>43675</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12">
-        <v>43738</v>
+        <v>43700</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12">
-        <v>43740</v>
+        <v>43738</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12">
-        <v>43742</v>
+        <v>43740</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12">
-        <v>43757</v>
+        <v>43745</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12">
-        <v>43764</v>
+        <v>43757</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
@@ -3580,17 +3609,17 @@
         <v>43764</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12">
-        <v>43770</v>
+        <v>43764</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
@@ -3600,36 +3629,48 @@
         <v>43770</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12">
-        <v>43782</v>
+        <v>43770</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="12"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="12">
+        <v>43782</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="12"/>
-      <c r="B111" s="21"/>
+      <c r="A111" s="12">
+        <v>43786</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>328</v>
+      </c>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="12"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="12">
+        <v>43787</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>329</v>
+      </c>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
     </row>
@@ -3688,15 +3729,21 @@
       <c r="D121" s="21"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H89" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H89">
-      <sortCondition ref="E4:E89"/>
+  <autoFilter ref="A4:H90" xr:uid="{12ABAAD2-10AD-445B-A38F-77CAAD4446E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H90">
+      <sortCondition ref="E4:E90"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3709,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200ED79-E8BF-4B26-BED8-4868A9C7408E}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3761,16 +3808,22 @@
         <v>127</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>147</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3837,7 +3890,7 @@
         <v>147</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4033,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>127</v>
@@ -4042,7 +4095,7 @@
         <v>146</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4099,13 +4152,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>274</v>
+        <v>259</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>127</v>
@@ -4168,10 +4221,13 @@
         <v>127</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>274</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>127</v>
@@ -4182,7 +4238,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>127</v>
@@ -4203,7 +4259,7 @@
         <v>142</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:8">

--- a/bom/inventory.xlsx
+++ b/bom/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC2873-8D17-4602-84DB-D6F753B9E1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865FFC0-F584-472C-94B9-487D461B97FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11210" yWindow="2660" windowWidth="27380" windowHeight="15550" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
+    <workbookView xWindow="-7730" yWindow="5130" windowWidth="27380" windowHeight="15550" activeTab="1" xr2:uid="{89C19F82-CB44-4DB1-A809-9A6D12CA2984}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="335">
   <si>
     <t>Inventory of parts for all boards</t>
   </si>
@@ -1038,6 +1038,9 @@
   </si>
   <si>
     <t>399-8957-1-ND</t>
+  </si>
+  <si>
+    <t>Assembled 1x synthesizer-Si4112, transceiver-AX5043, mixer-MAC-24+ w/ matching, AVX BPF BP0805</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>214</v>
@@ -1778,7 +1781,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>214</v>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>214</v>
@@ -1850,7 +1853,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>214</v>
@@ -1874,7 +1877,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>214</v>
@@ -1922,7 +1925,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>214</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>214</v>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>214</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>214</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>214</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>214</v>
@@ -2324,7 +2327,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>214</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>214</v>
@@ -2396,7 +2399,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>214</v>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>214</v>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>214</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>214</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>214</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>214</v>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>214</v>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>214</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>214</v>
@@ -3040,7 +3043,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>214</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>214</v>
@@ -3088,7 +3091,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>214</v>
@@ -3136,7 +3139,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>214</v>
@@ -3304,7 +3307,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>214</v>
@@ -3400,7 +3403,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>214</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>214</v>
@@ -3675,8 +3678,12 @@
       <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="12"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="12">
+        <v>43805</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>334</v>
+      </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
     </row>
@@ -3757,7 +3764,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3942,10 +3949,10 @@
         <v>127</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>127</v>
@@ -4175,10 +4182,10 @@
         <v>127</v>
       </c>
       <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>127</v>
@@ -4221,10 +4228,10 @@
         <v>127</v>
       </c>
       <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
         <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>127</v>
